--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ifng-Ifngr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ifng-Ifngr1.xlsx
@@ -543,10 +543,10 @@
         <v>0.09221</v>
       </c>
       <c r="I2">
-        <v>0.1528685439938461</v>
+        <v>0.07173050923138437</v>
       </c>
       <c r="J2">
-        <v>0.1528685439938461</v>
+        <v>0.07173050923138438</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>52.46401866666667</v>
+        <v>64.88963566666666</v>
       </c>
       <c r="N2">
-        <v>157.392056</v>
+        <v>194.668907</v>
       </c>
       <c r="O2">
-        <v>0.2683181830894023</v>
+        <v>0.3123366816504561</v>
       </c>
       <c r="P2">
-        <v>0.2683181830894022</v>
+        <v>0.3123366816504561</v>
       </c>
       <c r="Q2">
-        <v>1.612569053751111</v>
+        <v>1.994491101607778</v>
       </c>
       <c r="R2">
-        <v>14.51312148376</v>
+        <v>17.95041991447</v>
       </c>
       <c r="S2">
-        <v>0.04101740997595115</v>
+        <v>0.022404069226428</v>
       </c>
       <c r="T2">
-        <v>0.04101740997595114</v>
+        <v>0.022404069226428</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.09221</v>
       </c>
       <c r="I3">
-        <v>0.1528685439938461</v>
+        <v>0.07173050923138437</v>
       </c>
       <c r="J3">
-        <v>0.1528685439938461</v>
+        <v>0.07173050923138438</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>168.511654</v>
       </c>
       <c r="O3">
-        <v>0.2872746057187918</v>
+        <v>0.2703686564069002</v>
       </c>
       <c r="P3">
-        <v>0.2872746057187918</v>
+        <v>0.2703686564069002</v>
       </c>
       <c r="Q3">
         <v>1.726495512815555</v>
@@ -635,10 +635,10 @@
         <v>15.53845961534</v>
       </c>
       <c r="S3">
-        <v>0.04391525070263793</v>
+        <v>0.01939368140427214</v>
       </c>
       <c r="T3">
-        <v>0.04391525070263792</v>
+        <v>0.01939368140427214</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.09221</v>
       </c>
       <c r="I4">
-        <v>0.1528685439938461</v>
+        <v>0.07173050923138437</v>
       </c>
       <c r="J4">
-        <v>0.1528685439938461</v>
+        <v>0.07173050923138438</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.646673</v>
+        <v>15.632391</v>
       </c>
       <c r="N4">
-        <v>28.940019</v>
+        <v>46.897173</v>
       </c>
       <c r="O4">
-        <v>0.04933624678397224</v>
+        <v>0.07524420627484885</v>
       </c>
       <c r="P4">
-        <v>0.04933624678397224</v>
+        <v>0.07524420627484883</v>
       </c>
       <c r="Q4">
-        <v>0.2965065724433333</v>
+        <v>0.48048759137</v>
       </c>
       <c r="R4">
-        <v>2.66855915199</v>
+        <v>4.32438832233</v>
       </c>
       <c r="S4">
-        <v>0.007541960211986911</v>
+        <v>0.005397305232806235</v>
       </c>
       <c r="T4">
-        <v>0.007541960211986911</v>
+        <v>0.005397305232806235</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.09221</v>
       </c>
       <c r="I5">
-        <v>0.1528685439938461</v>
+        <v>0.07173050923138437</v>
       </c>
       <c r="J5">
-        <v>0.1528685439938461</v>
+        <v>0.07173050923138438</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>77.24787866666667</v>
+        <v>71.062833</v>
       </c>
       <c r="N5">
-        <v>231.743636</v>
+        <v>213.188499</v>
       </c>
       <c r="O5">
-        <v>0.3950709644078338</v>
+        <v>0.3420504556677949</v>
       </c>
       <c r="P5">
-        <v>0.3950709644078338</v>
+        <v>0.3420504556677948</v>
       </c>
       <c r="Q5">
-        <v>2.374342297284444</v>
+        <v>2.18423461031</v>
       </c>
       <c r="R5">
-        <v>21.36908067556</v>
+        <v>19.65811149279</v>
       </c>
       <c r="S5">
-        <v>0.06039392310327017</v>
+        <v>0.02453545336787799</v>
       </c>
       <c r="T5">
-        <v>0.06039392310327017</v>
+        <v>0.02453545336787799</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1703293333333333</v>
+        <v>0.3977653333333333</v>
       </c>
       <c r="H6">
-        <v>0.510988</v>
+        <v>1.193296</v>
       </c>
       <c r="I6">
-        <v>0.8471314560061539</v>
+        <v>0.9282694907686155</v>
       </c>
       <c r="J6">
-        <v>0.8471314560061538</v>
+        <v>0.9282694907686156</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.46401866666667</v>
+        <v>64.88963566666666</v>
       </c>
       <c r="N6">
-        <v>157.392056</v>
+        <v>194.668907</v>
       </c>
       <c r="O6">
-        <v>0.2683181830894023</v>
+        <v>0.3123366816504561</v>
       </c>
       <c r="P6">
-        <v>0.2683181830894022</v>
+        <v>0.3123366816504561</v>
       </c>
       <c r="Q6">
-        <v>8.936161323480889</v>
+        <v>25.81084756083022</v>
       </c>
       <c r="R6">
-        <v>80.425451911328</v>
+        <v>232.297628047472</v>
       </c>
       <c r="S6">
-        <v>0.2273007731134511</v>
+        <v>0.2899326124240281</v>
       </c>
       <c r="T6">
-        <v>0.227300773113451</v>
+        <v>0.2899326124240281</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1703293333333333</v>
+        <v>0.3977653333333333</v>
       </c>
       <c r="H7">
-        <v>0.510988</v>
+        <v>1.193296</v>
       </c>
       <c r="I7">
-        <v>0.8471314560061539</v>
+        <v>0.9282694907686155</v>
       </c>
       <c r="J7">
-        <v>0.8471314560061538</v>
+        <v>0.9282694907686156</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>168.511654</v>
       </c>
       <c r="O7">
-        <v>0.2872746057187918</v>
+        <v>0.2703686564069002</v>
       </c>
       <c r="P7">
-        <v>0.2872746057187918</v>
+        <v>0.2703686564069002</v>
       </c>
       <c r="Q7">
-        <v>9.567492561572443</v>
+        <v>22.34269807462044</v>
       </c>
       <c r="R7">
-        <v>86.107433054152</v>
+        <v>201.084282671584</v>
       </c>
       <c r="S7">
-        <v>0.2433593550161539</v>
+        <v>0.2509749750026281</v>
       </c>
       <c r="T7">
-        <v>0.2433593550161538</v>
+        <v>0.2509749750026281</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1703293333333333</v>
+        <v>0.3977653333333333</v>
       </c>
       <c r="H8">
-        <v>0.510988</v>
+        <v>1.193296</v>
       </c>
       <c r="I8">
-        <v>0.8471314560061539</v>
+        <v>0.9282694907686155</v>
       </c>
       <c r="J8">
-        <v>0.8471314560061538</v>
+        <v>0.9282694907686156</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.646673</v>
+        <v>15.632391</v>
       </c>
       <c r="N8">
-        <v>28.940019</v>
+        <v>46.897173</v>
       </c>
       <c r="O8">
-        <v>0.04933624678397224</v>
+        <v>0.07524420627484885</v>
       </c>
       <c r="P8">
-        <v>0.04933624678397224</v>
+        <v>0.07524420627484883</v>
       </c>
       <c r="Q8">
-        <v>1.643111380974667</v>
+        <v>6.218023216912</v>
       </c>
       <c r="R8">
-        <v>14.788002428772</v>
+        <v>55.962208952208</v>
       </c>
       <c r="S8">
-        <v>0.04179428657198533</v>
+        <v>0.06984690104204261</v>
       </c>
       <c r="T8">
-        <v>0.04179428657198533</v>
+        <v>0.06984690104204259</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1703293333333333</v>
+        <v>0.3977653333333333</v>
       </c>
       <c r="H9">
-        <v>0.510988</v>
+        <v>1.193296</v>
       </c>
       <c r="I9">
-        <v>0.8471314560061539</v>
+        <v>0.9282694907686155</v>
       </c>
       <c r="J9">
-        <v>0.8471314560061538</v>
+        <v>0.9282694907686156</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>77.24787866666667</v>
+        <v>71.062833</v>
       </c>
       <c r="N9">
-        <v>231.743636</v>
+        <v>213.188499</v>
       </c>
       <c r="O9">
-        <v>0.3950709644078338</v>
+        <v>0.3420504556677949</v>
       </c>
       <c r="P9">
-        <v>0.3950709644078338</v>
+        <v>0.3420504556677948</v>
       </c>
       <c r="Q9">
-        <v>13.15757967470756</v>
+        <v>28.266331455856</v>
       </c>
       <c r="R9">
-        <v>118.418217072368</v>
+        <v>254.396983102704</v>
       </c>
       <c r="S9">
-        <v>0.3346770413045637</v>
+        <v>0.3175150022999168</v>
       </c>
       <c r="T9">
-        <v>0.3346770413045636</v>
+        <v>0.3175150022999168</v>
       </c>
     </row>
   </sheetData>
